--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1953.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1953.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.5244597687859</v>
+        <v>0.2404091954231262</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.2316491901874542</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.241667851805687</v>
       </c>
       <c r="D1">
-        <v>1.351935221072917</v>
+        <v>0.3276466131210327</v>
       </c>
       <c r="E1">
-        <v>0.9575155241710929</v>
+        <v>0.5902460217475891</v>
       </c>
     </row>
   </sheetData>
